--- a/cultural.xlsx
+++ b/cultural.xlsx
@@ -434,359 +434,595 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>6220102000622</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>5550202001249</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>5560202001250</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>5600202001254</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>6220202001316</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5560302001944</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6070302001995</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6220302002010</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6220402002704</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>5560502003332</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>6070502003383</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>6220502003398</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>6220602004092</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>6220702004786</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>6220802005480</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>5550902006107</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>5560902006108</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>5600902006112</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>6070902006159</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>6220902006174</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>5561002006802</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>6071002006853</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>6221002006868</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>5561102007496</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>6071102007547</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>6221102007562</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>5561202008190</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>5571202008191</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>6071202008241</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>6081202008242</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>6091202008243</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>6221202008256</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>5561302008884</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>6071302008935</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>6221302008950</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>3381402009360</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>5551402009577</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>5561402009578</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>5601402009582</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>6071402009629</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>6221402009644</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>5561502010272</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>6071502010323</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>6221502010338</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>5561602010966</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>5571602010967</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>6221602011032</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>3381702011442</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>5551702011659</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>5561702011660</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>5601702011664</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>6051702011709</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>6221702011726</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>6221802012420</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>3381902012830</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>5561902013048</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>5571902013049</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>5601902013052</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>6051902013097</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>6221902013114</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>5562002013742</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>6052002013791</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>6072002013793</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>6222002013808</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>5552102014435</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>5562102014436</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>5602102014440</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>6072102014487</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>6222102014502</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>6222202015196</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>6052302015873</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>6222302015890</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>5562402016518</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>5572402016519</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>6072402016569</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>6082402016570</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>6092402016571</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>6222402016584</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>3382502016994</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>5562502017212</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>5602502017216</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>6072502017263</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>6222502017278</v>
-      </c>
-      <c r="CF1" s="1" t="n">
-        <v>6072602017957</v>
-      </c>
-      <c r="CG1" s="1" t="n">
-        <v>6222602017972</v>
-      </c>
-      <c r="CH1" s="1" t="n">
-        <v>6222702018666</v>
-      </c>
-      <c r="CI1" s="1" t="n">
-        <v>5552802019293</v>
-      </c>
-      <c r="CJ1" s="1" t="n">
-        <v>5602802019298</v>
-      </c>
-      <c r="CK1" s="1" t="n">
-        <v>6072802019345</v>
-      </c>
-      <c r="CL1" s="1" t="n">
-        <v>6222802019360</v>
-      </c>
-      <c r="CM1" s="1" t="n">
-        <v>6222902020054</v>
-      </c>
-      <c r="CN1" s="1" t="n">
-        <v>5563002020682</v>
-      </c>
-      <c r="CO1" s="1" t="n">
-        <v>5573002020683</v>
-      </c>
-      <c r="CP1" s="1" t="n">
-        <v>6073002020733</v>
-      </c>
-      <c r="CQ1" s="1" t="n">
-        <v>6083002020734</v>
-      </c>
-      <c r="CR1" s="1" t="n">
-        <v>6093002020735</v>
-      </c>
-      <c r="CS1" s="1" t="n">
-        <v>6223002020748</v>
-      </c>
-      <c r="CT1" s="1" t="n">
-        <v>5563102021376</v>
-      </c>
-      <c r="CU1" s="1" t="n">
-        <v>6073102021427</v>
-      </c>
-      <c r="CV1" s="1" t="n">
-        <v>6223102021442</v>
-      </c>
-      <c r="CW1" s="1" t="n">
-        <v>6223202022136</v>
-      </c>
-      <c r="CX1" s="1" t="n">
-        <v>6223302022830</v>
-      </c>
-      <c r="CY1" s="1" t="n">
-        <v>5563402023458</v>
-      </c>
-      <c r="CZ1" s="1" t="n">
-        <v>5573402023459</v>
-      </c>
-      <c r="DA1" s="1" t="n">
-        <v>6223402023524</v>
-      </c>
-      <c r="DB1" s="1" t="n">
-        <v>6223502024218</v>
-      </c>
-      <c r="DC1" s="1" t="n">
-        <v>6223602024912</v>
-      </c>
-      <c r="DD1" s="1" t="n">
-        <v>3383702025322</v>
-      </c>
-      <c r="DE1" s="1" t="n">
-        <v>5553702025539</v>
-      </c>
-      <c r="DF1" s="1" t="n">
-        <v>5563702025540</v>
-      </c>
-      <c r="DG1" s="1" t="n">
-        <v>6053702025589</v>
-      </c>
-      <c r="DH1" s="1" t="n">
-        <v>6223702025606</v>
-      </c>
-      <c r="DI1" s="1" t="n">
-        <v>6223802026300</v>
-      </c>
-      <c r="DJ1" s="1" t="n">
-        <v>5563902026928</v>
-      </c>
-      <c r="DK1" s="1" t="n">
-        <v>5573902026929</v>
-      </c>
-      <c r="DL1" s="1" t="n">
-        <v>6073902026979</v>
-      </c>
-      <c r="DM1" s="1" t="n">
-        <v>6223902026994</v>
-      </c>
-      <c r="DN1" s="1" t="n">
-        <v>6224002027688</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers, female</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Lower secondary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Lower secondary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Lower secondary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers, female</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Lower secondary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Primary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, teachers, female</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Lower secondary school starting age (years)</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, duration (years)</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, pupils</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Primary education, teachers</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary education, pupils</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Sex ratio at birth (male births per female births)</t>
+        </is>
       </c>
     </row>
     <row r="2">

--- a/cultural.xlsx
+++ b/cultural.xlsx
@@ -1369,10 +1369,10 @@
         <v>553205</v>
       </c>
       <c r="DK2" t="n">
-        <v>799.0111092957668</v>
+        <v>2791.011109295767</v>
       </c>
       <c r="DL2" t="n">
-        <v>3980.212078727782</v>
+        <v>5972.212078727782</v>
       </c>
       <c r="DM2" t="n">
         <v>1.042</v>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>1807318.434881687</v>
+        <v>1809310.434881687</v>
       </c>
       <c r="AY5" t="n">
         <v>7</v>
@@ -2320,10 +2320,10 @@
         <v>809653</v>
       </c>
       <c r="BX5" t="n">
-        <v>73164.56077438331</v>
+        <v>75156.56077438331</v>
       </c>
       <c r="BY5" t="n">
-        <v>39959.01776523044</v>
+        <v>41951.01776523044</v>
       </c>
       <c r="BZ5" t="n">
         <v>1.051</v>
@@ -2478,10 +2478,10 @@
         <v>1.037</v>
       </c>
       <c r="J6" t="n">
-        <v>734286.1825848622</v>
+        <v>736278.1825848622</v>
       </c>
       <c r="K6" t="n">
-        <v>1101070.103239862</v>
+        <v>1103062.103239862</v>
       </c>
       <c r="L6" t="n">
         <v>1.047</v>
@@ -2499,13 +2499,13 @@
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>360771.6300994065</v>
+        <v>362763.6300994065</v>
       </c>
       <c r="R6" t="n">
         <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>434119.6274446417</v>
+        <v>436111.6274446417</v>
       </c>
       <c r="T6" t="n">
         <v>1.057</v>
@@ -2583,10 +2583,10 @@
         <v>1.061</v>
       </c>
       <c r="AS6" t="n">
-        <v>2056350.644142151</v>
+        <v>2058342.644142151</v>
       </c>
       <c r="AT6" t="n">
-        <v>39407.73286529258</v>
+        <v>41399.73286529258</v>
       </c>
       <c r="AU6" t="n">
         <v>1.037</v>
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>2029463.750330388</v>
+        <v>2031455.750330388</v>
       </c>
       <c r="AY6" t="n">
         <v>7</v>
@@ -2688,13 +2688,13 @@
         <v>13</v>
       </c>
       <c r="CB6" t="n">
-        <v>493889.0205269114</v>
+        <v>495881.0205269114</v>
       </c>
       <c r="CC6" t="n">
         <v>7</v>
       </c>
       <c r="CD6" t="n">
-        <v>554286.1247186419</v>
+        <v>556278.1247186419</v>
       </c>
       <c r="CE6" t="n">
         <v>1.052</v>
@@ -2778,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="DF6" t="n">
-        <v>2324840.51290226</v>
+        <v>2326832.51290226</v>
       </c>
       <c r="DG6" t="n">
         <v>4</v>
@@ -2834,10 +2834,10 @@
         <v>1.039</v>
       </c>
       <c r="J7" t="n">
-        <v>736967.4306346197</v>
+        <v>738959.4306346197</v>
       </c>
       <c r="K7" t="n">
-        <v>1105905.801040128</v>
+        <v>1107897.801040128</v>
       </c>
       <c r="L7" t="n">
         <v>1.048</v>
@@ -2897,7 +2897,7 @@
         <v>530118</v>
       </c>
       <c r="AE7" t="n">
-        <v>282352.4653583728</v>
+        <v>284344.4653583728</v>
       </c>
       <c r="AF7" t="n">
         <v>1.055</v>
@@ -2906,7 +2906,7 @@
         <v>109412904</v>
       </c>
       <c r="AH7" t="n">
-        <v>70804483.89002609</v>
+        <v>70806475.89002609</v>
       </c>
       <c r="AI7" t="n">
         <v>1.093</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="BD7" t="n">
-        <v>3784473.456157021</v>
+        <v>3786465.456157021</v>
       </c>
       <c r="BE7" t="n">
-        <v>91856.4085117057</v>
+        <v>93848.4085117057</v>
       </c>
       <c r="BF7" t="n">
         <v>6</v>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="CK7" t="n">
-        <v>76159751.43440318</v>
+        <v>76161743.43440318</v>
       </c>
       <c r="CL7" t="n">
         <v>1.166</v>
@@ -3828,7 +3828,7 @@
         <v>4382410</v>
       </c>
       <c r="CZ9" t="n">
-        <v>118702.5890410952</v>
+        <v>120694.5890410952</v>
       </c>
       <c r="DA9" t="n">
         <v>1.024</v>
@@ -4459,7 +4459,7 @@
         <v>70209</v>
       </c>
       <c r="BY11" t="n">
-        <v>40577.16825325784</v>
+        <v>42569.16825325784</v>
       </c>
       <c r="BZ11" t="n">
         <v>1.059</v>
@@ -4635,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>390389.4622783698</v>
+        <v>392381.4622783698</v>
       </c>
       <c r="R12" t="n">
         <v>7</v>
@@ -4734,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>3362335.643022299</v>
+        <v>3364327.643022299</v>
       </c>
       <c r="AY12" t="n">
         <v>6</v>
@@ -4914,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="DF12" t="n">
-        <v>2879670.473364979</v>
+        <v>2881662.473364979</v>
       </c>
       <c r="DG12" t="n">
         <v>6</v>
@@ -5039,7 +5039,7 @@
         <v>1.054</v>
       </c>
       <c r="AG13" t="n">
-        <v>119900457.3542328</v>
+        <v>119902449.3542328</v>
       </c>
       <c r="AH13" t="n">
         <v>84569080</v>
@@ -5207,7 +5207,7 @@
         <v>6</v>
       </c>
       <c r="CK13" t="n">
-        <v>81690875.4715085</v>
+        <v>81692867.4715085</v>
       </c>
       <c r="CL13" t="n">
         <v>1.178</v>
@@ -5395,7 +5395,7 @@
         <v>1.054</v>
       </c>
       <c r="AG14" t="n">
-        <v>120644552.6375508</v>
+        <v>120646544.6375508</v>
       </c>
       <c r="AH14" t="n">
         <v>89461792</v>
@@ -5563,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="CK14" t="n">
-        <v>82612729.4776926</v>
+        <v>82614721.4776926</v>
       </c>
       <c r="CL14" t="n">
         <v>1.178</v>
@@ -5751,7 +5751,7 @@
         <v>1.057</v>
       </c>
       <c r="AG15" t="n">
-        <v>121388647.9208689</v>
+        <v>121390639.9208689</v>
       </c>
       <c r="AH15" t="n">
         <v>91529432</v>
@@ -5823,7 +5823,7 @@
         <v>4502697</v>
       </c>
       <c r="BE15" t="n">
-        <v>127491.3464314844</v>
+        <v>129483.3464314844</v>
       </c>
       <c r="BF15" t="n">
         <v>5</v>
@@ -8264,7 +8264,7 @@
         <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>377946.1180177378</v>
+        <v>379938.1180177378</v>
       </c>
       <c r="AO22" t="n">
         <v>1.053</v>
@@ -8327,13 +8327,13 @@
         <v>1.054</v>
       </c>
       <c r="BI22" t="n">
-        <v>1221084.639344262</v>
+        <v>1223076.639344262</v>
       </c>
       <c r="BJ22" t="n">
         <v>7</v>
       </c>
       <c r="BK22" t="n">
-        <v>1539890.887978142</v>
+        <v>1541882.887978142</v>
       </c>
       <c r="BL22" t="n">
         <v>1.053</v>
@@ -8683,13 +8683,13 @@
         <v>1.054</v>
       </c>
       <c r="BI23" t="n">
-        <v>1219848.192968596</v>
+        <v>1221840.192968596</v>
       </c>
       <c r="BJ23" t="n">
         <v>7</v>
       </c>
       <c r="BK23" t="n">
-        <v>1548289.158239515</v>
+        <v>1550281.158239515</v>
       </c>
       <c r="BL23" t="n">
         <v>1.048</v>
@@ -8746,7 +8746,7 @@
         <v>7</v>
       </c>
       <c r="CD23" t="n">
-        <v>599406.6067116847</v>
+        <v>601398.6067116847</v>
       </c>
       <c r="CE23" t="n">
         <v>1.059</v>
@@ -9464,7 +9464,7 @@
         <v>1.052</v>
       </c>
       <c r="CF25" t="n">
-        <v>6019286.471036345</v>
+        <v>6021278.471036345</v>
       </c>
       <c r="CG25" t="n">
         <v>1.054</v>
@@ -10092,10 +10092,10 @@
         <v>10</v>
       </c>
       <c r="BD27" t="n">
-        <v>4184029.573151373</v>
+        <v>4186021.573151373</v>
       </c>
       <c r="BE27" t="n">
-        <v>180943.7533111535</v>
+        <v>182935.7533111535</v>
       </c>
       <c r="BF27" t="n">
         <v>5</v>
@@ -10978,13 +10978,13 @@
         <v>1.024</v>
       </c>
       <c r="DJ29" t="n">
-        <v>2619202.558510661</v>
+        <v>2621194.558510661</v>
       </c>
       <c r="DK29" t="n">
-        <v>44173.25837281486</v>
+        <v>46165.25837281486</v>
       </c>
       <c r="DL29" t="n">
-        <v>621987.9692143723</v>
+        <v>623979.9692143723</v>
       </c>
       <c r="DM29" t="n">
         <v>1.042</v>
@@ -11696,7 +11696,7 @@
         <v>49875</v>
       </c>
       <c r="DL31" t="n">
-        <v>667766.3215947896</v>
+        <v>669758.3215947896</v>
       </c>
       <c r="DM31" t="n">
         <v>1.042</v>
@@ -11707,100 +11707,100 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1990.94611954023</v>
+        <v>1.053880459770115</v>
       </c>
       <c r="B32" t="n">
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>2306021.875862069</v>
+        <v>2308013.875862069</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>-1990.941731034483</v>
+        <v>1.058268965517242</v>
       </c>
       <c r="F32" t="n">
-        <v>319087.0297413794</v>
+        <v>321079.0297413794</v>
       </c>
       <c r="G32" t="n">
-        <v>680903.5722701149</v>
+        <v>682895.5722701149</v>
       </c>
       <c r="H32" t="n">
-        <v>-1990.939411494253</v>
+        <v>1.060588505747126</v>
       </c>
       <c r="I32" t="n">
-        <v>-1990.95083908046</v>
+        <v>1.04916091954023</v>
       </c>
       <c r="J32" t="n">
-        <v>803998.6318785576</v>
+        <v>805990.6318785576</v>
       </c>
       <c r="K32" t="n">
-        <v>1226798.246046806</v>
+        <v>1228790.246046806</v>
       </c>
       <c r="L32" t="n">
-        <v>-1990.952705747126</v>
+        <v>1.047294252873563</v>
       </c>
       <c r="M32" t="n">
-        <v>-1990.947445977012</v>
+        <v>1.052554022988506</v>
       </c>
       <c r="N32" t="n">
-        <v>-1990.98187816092</v>
+        <v>1.01812183908046</v>
       </c>
       <c r="O32" t="n">
-        <v>-1990.94343908046</v>
+        <v>1.05656091954023</v>
       </c>
       <c r="P32" t="n">
         <v>7</v>
       </c>
       <c r="Q32" t="n">
-        <v>489115.5695415829</v>
+        <v>491107.5695415829</v>
       </c>
       <c r="R32" t="n">
         <v>6</v>
       </c>
       <c r="S32" t="n">
-        <v>558675.7065136582</v>
+        <v>560667.7065136582</v>
       </c>
       <c r="T32" t="n">
-        <v>-1990.944328735633</v>
+        <v>1.055671264367816</v>
       </c>
       <c r="U32" t="n">
-        <v>351247.2344827587</v>
+        <v>353239.2344827587</v>
       </c>
       <c r="V32" t="n">
-        <v>519254.5448275861</v>
+        <v>521246.5448275861</v>
       </c>
       <c r="W32" t="n">
-        <v>-1990.949170114942</v>
+        <v>1.050829885057471</v>
       </c>
       <c r="X32" t="n">
-        <v>4296841.887356322</v>
+        <v>4298833.887356322</v>
       </c>
       <c r="Y32" t="n">
-        <v>6100842.103448276</v>
+        <v>6102834.103448276</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1990.953131034483</v>
+        <v>1.046868965517241</v>
       </c>
       <c r="AA32" t="n">
-        <v>2756653.08275862</v>
+        <v>2758645.08275862</v>
       </c>
       <c r="AB32" t="n">
-        <v>255285.497162356</v>
+        <v>257277.497162356</v>
       </c>
       <c r="AC32" t="n">
-        <v>6820445.591954023</v>
+        <v>6822437.591954023</v>
       </c>
       <c r="AD32" t="n">
-        <v>607004.4870689656</v>
+        <v>608996.4870689656</v>
       </c>
       <c r="AE32" t="n">
-        <v>401001.1828677785</v>
+        <v>402993.1828677785</v>
       </c>
       <c r="AF32" t="n">
-        <v>-1990.946967816092</v>
+        <v>1.053032183908046</v>
       </c>
       <c r="AG32" t="n">
         <v>131298001</v>
@@ -11809,7 +11809,7 @@
         <v>134342140.812524</v>
       </c>
       <c r="AI32" t="n">
-        <v>-1990.914809195402</v>
+        <v>1.085190804597701</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
@@ -11818,25 +11818,25 @@
         <v>8</v>
       </c>
       <c r="AL32" t="n">
-        <v>587710.540229883</v>
+        <v>589702.540229883</v>
       </c>
       <c r="AM32" t="n">
         <v>5</v>
       </c>
       <c r="AN32" t="n">
-        <v>402567.8405943681</v>
+        <v>404559.8405943681</v>
       </c>
       <c r="AO32" t="n">
-        <v>-1990.950333333333</v>
+        <v>1.049666666666666</v>
       </c>
       <c r="AP32" t="n">
-        <v>2778774.825287356</v>
+        <v>2780766.825287356</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4570619.206896552</v>
+        <v>4572611.206896552</v>
       </c>
       <c r="AR32" t="n">
-        <v>-1990.942772413793</v>
+        <v>1.057227586206897</v>
       </c>
       <c r="AS32" t="n">
         <v>5113497</v>
@@ -11845,7 +11845,7 @@
         <v>135269</v>
       </c>
       <c r="AU32" t="n">
-        <v>-1990.960763218391</v>
+        <v>1.039236781609196</v>
       </c>
       <c r="AV32" t="n">
         <v>13</v>
@@ -11863,10 +11863,10 @@
         <v>5</v>
       </c>
       <c r="BA32" t="n">
-        <v>-1990.979988505748</v>
+        <v>1.020011494252874</v>
       </c>
       <c r="BB32" t="n">
-        <v>-1990.933259770115</v>
+        <v>1.066740229885057</v>
       </c>
       <c r="BC32" t="n">
         <v>10</v>
@@ -11884,85 +11884,85 @@
         <v>7</v>
       </c>
       <c r="BH32" t="n">
-        <v>-1990.945377011494</v>
+        <v>1.054622988505747</v>
       </c>
       <c r="BI32" t="n">
-        <v>1208720.175587596</v>
+        <v>1210712.175587596</v>
       </c>
       <c r="BJ32" t="n">
         <v>6</v>
       </c>
       <c r="BK32" t="n">
-        <v>1623873.590591876</v>
+        <v>1625865.590591876</v>
       </c>
       <c r="BL32" t="n">
-        <v>-1990.949110344828</v>
+        <v>1.050889655172414</v>
       </c>
       <c r="BM32" t="n">
         <v>7</v>
       </c>
       <c r="BN32" t="n">
-        <v>469305.7448275862</v>
+        <v>471297.7448275862</v>
       </c>
       <c r="BO32" t="n">
         <v>6</v>
       </c>
       <c r="BP32" t="n">
-        <v>466694.2252873564</v>
+        <v>468686.2252873564</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-1990.939912643678</v>
+        <v>1.060087356321839</v>
       </c>
       <c r="BR32" t="n">
-        <v>-1990.949914942528</v>
+        <v>1.050085057471264</v>
       </c>
       <c r="BS32" t="n">
         <v>4</v>
       </c>
       <c r="BT32" t="n">
-        <v>-1990.941871264368</v>
+        <v>1.058128735632184</v>
       </c>
       <c r="BU32" t="n">
-        <v>826141.3100574724</v>
+        <v>828133.3100574724</v>
       </c>
       <c r="BV32" t="n">
-        <v>66945.08965517231</v>
+        <v>68937.08965517231</v>
       </c>
       <c r="BW32" t="n">
-        <v>886714.4798850575</v>
+        <v>888706.4798850575</v>
       </c>
       <c r="BX32" t="n">
-        <v>69439.94892991346</v>
+        <v>71431.94892991346</v>
       </c>
       <c r="BY32" t="n">
-        <v>42740.69496135376</v>
+        <v>44732.69496135376</v>
       </c>
       <c r="BZ32" t="n">
-        <v>-1990.939949425288</v>
+        <v>1.060050574712643</v>
       </c>
       <c r="CA32" t="n">
         <v>12</v>
       </c>
       <c r="CB32" t="n">
-        <v>518826.3555196379</v>
+        <v>520818.3555196379</v>
       </c>
       <c r="CC32" t="n">
         <v>6</v>
       </c>
       <c r="CD32" t="n">
-        <v>623293.9207080016</v>
+        <v>625285.9207080016</v>
       </c>
       <c r="CE32" t="n">
-        <v>-1990.943864367816</v>
+        <v>1.056135632183908</v>
       </c>
       <c r="CF32" t="n">
-        <v>6370762.061704487</v>
+        <v>6372754.061704487</v>
       </c>
       <c r="CG32" t="n">
-        <v>-1990.945774712644</v>
+        <v>1.054225287356322</v>
       </c>
       <c r="CH32" t="n">
-        <v>-1990.95256091954</v>
+        <v>1.04743908045977</v>
       </c>
       <c r="CI32" t="n">
         <v>6</v>
@@ -11974,43 +11974,43 @@
         <v>96322800</v>
       </c>
       <c r="CL32" t="n">
-        <v>-1990.864197701149</v>
+        <v>1.135802298850575</v>
       </c>
       <c r="CM32" t="n">
-        <v>-1990.948128735632</v>
+        <v>1.051871264367816</v>
       </c>
       <c r="CN32" t="n">
-        <v>2440286.781609207</v>
+        <v>2442278.781609207</v>
       </c>
       <c r="CO32" t="n">
-        <v>172922.5034482754</v>
+        <v>174914.5034482754</v>
       </c>
       <c r="CP32" t="n">
-        <v>2760349.342528745</v>
+        <v>2762341.342528745</v>
       </c>
       <c r="CQ32" t="n">
-        <v>241853.4413793101</v>
+        <v>243845.4413793101</v>
       </c>
       <c r="CR32" t="n">
-        <v>157349.3793103443</v>
+        <v>159341.3793103443</v>
       </c>
       <c r="CS32" t="n">
-        <v>-1990.96540229885</v>
+        <v>1.034597701149425</v>
       </c>
       <c r="CT32" t="n">
-        <v>378601.3448275863</v>
+        <v>380593.3448275863</v>
       </c>
       <c r="CU32" t="n">
-        <v>542827.3864224134</v>
+        <v>544819.3864224134</v>
       </c>
       <c r="CV32" t="n">
-        <v>-1990.947981609195</v>
+        <v>1.052018390804598</v>
       </c>
       <c r="CW32" t="n">
-        <v>-1990.965475862069</v>
+        <v>1.034524137931035</v>
       </c>
       <c r="CX32" t="n">
-        <v>-1990.977020689656</v>
+        <v>1.022979310344828</v>
       </c>
       <c r="CY32" t="n">
         <v>11428969</v>
@@ -12019,13 +12019,13 @@
         <v>207323</v>
       </c>
       <c r="DA32" t="n">
-        <v>-1990.971177011494</v>
+        <v>1.028822988505747</v>
       </c>
       <c r="DB32" t="n">
-        <v>-1990.973712643678</v>
+        <v>1.026287356321839</v>
       </c>
       <c r="DC32" t="n">
-        <v>-1990.941859770115</v>
+        <v>1.058140229885058</v>
       </c>
       <c r="DD32" t="n">
         <v>12</v>
@@ -12040,10 +12040,10 @@
         <v>6</v>
       </c>
       <c r="DH32" t="n">
-        <v>-1990.989043678161</v>
+        <v>1.01095632183908</v>
       </c>
       <c r="DI32" t="n">
-        <v>-1990.978963218392</v>
+        <v>1.021036781609196</v>
       </c>
       <c r="DJ32" t="n">
         <v>2955477</v>
@@ -12055,10 +12055,10 @@
         <v>750180</v>
       </c>
       <c r="DM32" t="n">
-        <v>-1990.955055172413</v>
+        <v>1.044944827586207</v>
       </c>
       <c r="DN32" t="n">
-        <v>-1990.965579310344</v>
+        <v>1.034420689655172</v>
       </c>
     </row>
   </sheetData>
